--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H2">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I2">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J2">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N2">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O2">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P2">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q2">
-        <v>3.024815336900833</v>
+        <v>3.950562907679334</v>
       </c>
       <c r="R2">
-        <v>3.024815336900833</v>
+        <v>35.55506616911401</v>
       </c>
       <c r="S2">
-        <v>0.0008147164272614319</v>
+        <v>0.0006675454617535522</v>
       </c>
       <c r="T2">
-        <v>0.0008147164272614319</v>
+        <v>0.000670303279649338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H3">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I3">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J3">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N3">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O3">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P3">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q3">
-        <v>5.447121704931219</v>
+        <v>8.155598113766001</v>
       </c>
       <c r="R3">
-        <v>5.447121704931219</v>
+        <v>73.40038302389401</v>
       </c>
       <c r="S3">
-        <v>0.001467150566238105</v>
+        <v>0.001378090321798827</v>
       </c>
       <c r="T3">
-        <v>0.001467150566238105</v>
+        <v>0.001383783600188411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H4">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I4">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J4">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N4">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O4">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P4">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q4">
-        <v>181.3289804399904</v>
+        <v>424.643892363933</v>
       </c>
       <c r="R4">
-        <v>181.3289804399904</v>
+        <v>3821.795031275397</v>
       </c>
       <c r="S4">
-        <v>0.04883990678729832</v>
+        <v>0.07175410437279295</v>
       </c>
       <c r="T4">
-        <v>0.04883990678729832</v>
+        <v>0.07205054074225845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H5">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I5">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J5">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N5">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O5">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P5">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q5">
-        <v>422.7679690853593</v>
+        <v>539.8751209240177</v>
       </c>
       <c r="R5">
-        <v>422.7679690853593</v>
+        <v>4858.876088316159</v>
       </c>
       <c r="S5">
-        <v>0.113870094855674</v>
+        <v>0.09122527480474463</v>
       </c>
       <c r="T5">
-        <v>0.113870094855674</v>
+        <v>0.09160215205104277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H6">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I6">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J6">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N6">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O6">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P6">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q6">
-        <v>3.086372379016432</v>
+        <v>3.5366875968575</v>
       </c>
       <c r="R6">
-        <v>3.086372379016432</v>
+        <v>21.220125581145</v>
       </c>
       <c r="S6">
-        <v>0.000831296458714389</v>
+        <v>0.000597610975978397</v>
       </c>
       <c r="T6">
-        <v>0.000831296458714389</v>
+        <v>0.000400053249906995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H7">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J7">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N7">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O7">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P7">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q7">
-        <v>4.368180669590935</v>
+        <v>5.184273989776223</v>
       </c>
       <c r="R7">
-        <v>4.368180669590935</v>
+        <v>46.65846590798601</v>
       </c>
       <c r="S7">
-        <v>0.0011765440704251</v>
+        <v>0.0008760115090522705</v>
       </c>
       <c r="T7">
-        <v>0.0011765440704251</v>
+        <v>0.0008796305587724686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H8">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J8">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N8">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O8">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P8">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q8">
-        <v>7.866269205302512</v>
+        <v>10.70248877446733</v>
       </c>
       <c r="R8">
-        <v>7.866269205302512</v>
+        <v>96.32239897020601</v>
       </c>
       <c r="S8">
-        <v>0.002118733882573802</v>
+        <v>0.001808450587377386</v>
       </c>
       <c r="T8">
-        <v>0.002118733882573802</v>
+        <v>0.001815921804963695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H9">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J9">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N9">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O9">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P9">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q9">
-        <v>261.859868776699</v>
+        <v>557.2548362210169</v>
       </c>
       <c r="R9">
-        <v>261.859868776699</v>
+        <v>5015.293525989154</v>
       </c>
       <c r="S9">
-        <v>0.07053043342192426</v>
+        <v>0.09416200821317319</v>
       </c>
       <c r="T9">
-        <v>0.07053043342192426</v>
+        <v>0.0945510179304609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H10">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I10">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J10">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N10">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O10">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P10">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q10">
-        <v>610.5254915075261</v>
+        <v>708.4713273880767</v>
       </c>
       <c r="R10">
-        <v>610.5254915075261</v>
+        <v>6376.241946492691</v>
       </c>
       <c r="S10">
-        <v>0.1644414920557342</v>
+        <v>0.1197137801453822</v>
       </c>
       <c r="T10">
-        <v>0.1644414920557342</v>
+        <v>0.1202083514130677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H11">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I11">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J11">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N11">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O11">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P11">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q11">
-        <v>4.457076106666461</v>
+        <v>4.641150627600833</v>
       </c>
       <c r="R11">
-        <v>4.457076106666461</v>
+        <v>27.846903765605</v>
       </c>
       <c r="S11">
-        <v>0.001200487539638074</v>
+        <v>0.0007842373634266564</v>
       </c>
       <c r="T11">
-        <v>0.001200487539638074</v>
+        <v>0.0005249848455739681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.8613746487719</v>
+        <v>42.765269</v>
       </c>
       <c r="H12">
-        <v>29.8613746487719</v>
+        <v>128.295807</v>
       </c>
       <c r="I12">
-        <v>0.2523939854120047</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J12">
-        <v>0.2523939854120047</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N12">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O12">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P12">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q12">
-        <v>4.603971933460094</v>
+        <v>7.515026680652666</v>
       </c>
       <c r="R12">
-        <v>4.603971933460094</v>
+        <v>67.63524012587401</v>
       </c>
       <c r="S12">
-        <v>0.001240053076656126</v>
+        <v>0.001269849910724101</v>
       </c>
       <c r="T12">
-        <v>0.001240053076656126</v>
+        <v>0.001275096017557871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.8613746487719</v>
+        <v>42.765269</v>
       </c>
       <c r="H13">
-        <v>29.8613746487719</v>
+        <v>128.295807</v>
       </c>
       <c r="I13">
-        <v>0.2523939854120047</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J13">
-        <v>0.2523939854120047</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N13">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O13">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P13">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q13">
-        <v>8.29088478285073</v>
+        <v>15.514127696206</v>
       </c>
       <c r="R13">
-        <v>8.29088478285073</v>
+        <v>139.627149265854</v>
       </c>
       <c r="S13">
-        <v>0.002233101620028506</v>
+        <v>0.00262149617122564</v>
       </c>
       <c r="T13">
-        <v>0.002233101620028506</v>
+        <v>0.002632326308600477</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.8613746487719</v>
+        <v>42.765269</v>
       </c>
       <c r="H14">
-        <v>29.8613746487719</v>
+        <v>128.295807</v>
       </c>
       <c r="I14">
-        <v>0.2523939854120047</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J14">
-        <v>0.2523939854120047</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N14">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O14">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P14">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q14">
-        <v>275.9948769381751</v>
+        <v>807.7861954021529</v>
       </c>
       <c r="R14">
-        <v>275.9948769381751</v>
+        <v>7270.075758619377</v>
       </c>
       <c r="S14">
-        <v>0.0743376157011665</v>
+        <v>0.136495487202515</v>
       </c>
       <c r="T14">
-        <v>0.0743376157011665</v>
+        <v>0.1370593884180402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.8613746487719</v>
+        <v>42.765269</v>
       </c>
       <c r="H15">
-        <v>29.8613746487719</v>
+        <v>128.295807</v>
       </c>
       <c r="I15">
-        <v>0.2523939854120047</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J15">
-        <v>0.2523939854120047</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N15">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O15">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P15">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q15">
-        <v>643.4812202549773</v>
+        <v>1026.986794737024</v>
       </c>
       <c r="R15">
-        <v>643.4812202549773</v>
+        <v>9242.881152633217</v>
       </c>
       <c r="S15">
-        <v>0.1733179260169657</v>
+        <v>0.1735348582286577</v>
       </c>
       <c r="T15">
-        <v>0.1733179260169657</v>
+        <v>0.1742517794946769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.8613746487719</v>
+        <v>42.765269</v>
       </c>
       <c r="H16">
-        <v>29.8613746487719</v>
+        <v>128.295807</v>
       </c>
       <c r="I16">
-        <v>0.2523939854120047</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J16">
-        <v>0.2523939854120047</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N16">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O16">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P16">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q16">
-        <v>4.697665882558293</v>
+        <v>6.727725205907499</v>
       </c>
       <c r="R16">
-        <v>4.697665882558293</v>
+        <v>40.366351235445</v>
       </c>
       <c r="S16">
-        <v>0.001265288997187893</v>
+        <v>0.00113681582449897</v>
       </c>
       <c r="T16">
-        <v>0.001265288997187893</v>
+        <v>0.0007610082200915824</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.328016970482</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H17">
-        <v>39.328016970482</v>
+        <v>119.406669</v>
       </c>
       <c r="I17">
-        <v>0.3324078364871638</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J17">
-        <v>0.3324078364871638</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N17">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O17">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P17">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q17">
-        <v>6.063521470810386</v>
+        <v>6.994338508528668</v>
       </c>
       <c r="R17">
-        <v>6.063521470810386</v>
+        <v>62.94904657675801</v>
       </c>
       <c r="S17">
-        <v>0.00163317425994775</v>
+        <v>0.001181866746194693</v>
       </c>
       <c r="T17">
-        <v>0.00163317425994775</v>
+        <v>0.001186749369850808</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.328016970482</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H18">
-        <v>39.328016970482</v>
+        <v>119.406669</v>
       </c>
       <c r="I18">
-        <v>0.3324078364871638</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J18">
-        <v>0.3324078364871638</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N18">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O18">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P18">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q18">
-        <v>10.91925811438404</v>
+        <v>14.439211646602</v>
       </c>
       <c r="R18">
-        <v>10.91925811438404</v>
+        <v>129.952904819418</v>
       </c>
       <c r="S18">
-        <v>0.002941038697724648</v>
+        <v>0.002439862478142465</v>
       </c>
       <c r="T18">
-        <v>0.002941038697724648</v>
+        <v>0.002449942235688569</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.328016970482</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H19">
-        <v>39.328016970482</v>
+        <v>119.406669</v>
       </c>
       <c r="I19">
-        <v>0.3324078364871638</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J19">
-        <v>0.3324078364871638</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N19">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O19">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P19">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q19">
-        <v>363.4906742123824</v>
+        <v>751.817702484651</v>
       </c>
       <c r="R19">
-        <v>363.4906742123824</v>
+        <v>6766.359322361859</v>
       </c>
       <c r="S19">
-        <v>0.09790410006998392</v>
+        <v>0.1270382239412115</v>
       </c>
       <c r="T19">
-        <v>0.09790410006998392</v>
+        <v>0.127563054544529</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.328016970482</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H20">
-        <v>39.328016970482</v>
+        <v>119.406669</v>
       </c>
       <c r="I20">
-        <v>0.3324078364871638</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J20">
-        <v>0.3324078364871638</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N20">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O20">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P20">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q20">
-        <v>847.4774067849218</v>
+        <v>955.8307097794303</v>
       </c>
       <c r="R20">
-        <v>847.4774067849218</v>
+        <v>8602.476388014873</v>
       </c>
       <c r="S20">
-        <v>0.2282631129965177</v>
+        <v>0.16151127508377</v>
       </c>
       <c r="T20">
-        <v>0.2282631129965177</v>
+        <v>0.1621785235489565</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.328016970482</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H21">
-        <v>39.328016970482</v>
+        <v>119.406669</v>
       </c>
       <c r="I21">
-        <v>0.3324078364871638</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J21">
-        <v>0.3324078364871638</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N21">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O21">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P21">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q21">
-        <v>6.186918242174929</v>
+        <v>6.261586216802501</v>
       </c>
       <c r="R21">
-        <v>6.186918242174929</v>
+        <v>37.569517300815</v>
       </c>
       <c r="S21">
-        <v>0.001666410462989725</v>
+        <v>0.001058050095666109</v>
       </c>
       <c r="T21">
-        <v>0.001666410462989725</v>
+        <v>0.0007082807986293328</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.17216047989684</v>
+        <v>1.1870385</v>
       </c>
       <c r="H22">
-        <v>1.17216047989684</v>
+        <v>2.374077</v>
       </c>
       <c r="I22">
-        <v>0.009907322035349725</v>
+        <v>0.008745100561913671</v>
       </c>
       <c r="J22">
-        <v>0.009907322035349725</v>
+        <v>0.005847111567493934</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N22">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O22">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P22">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q22">
-        <v>0.1807215513160614</v>
+        <v>0.208595110169</v>
       </c>
       <c r="R22">
-        <v>0.1807215513160614</v>
+        <v>1.251570661014</v>
       </c>
       <c r="S22">
-        <v>4.867629928385018E-05</v>
+        <v>3.524731092539302E-05</v>
       </c>
       <c r="T22">
-        <v>4.867629928385018E-05</v>
+        <v>2.359528498133799E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.17216047989684</v>
+        <v>1.1870385</v>
       </c>
       <c r="H23">
-        <v>1.17216047989684</v>
+        <v>2.374077</v>
       </c>
       <c r="I23">
-        <v>0.009907322035349725</v>
+        <v>0.008745100561913671</v>
       </c>
       <c r="J23">
-        <v>0.009907322035349725</v>
+        <v>0.005847111567493934</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N23">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O23">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P23">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q23">
-        <v>0.325445415696407</v>
+        <v>0.430626704799</v>
       </c>
       <c r="R23">
-        <v>0.325445415696407</v>
+        <v>2.583760228794</v>
       </c>
       <c r="S23">
-        <v>8.76568308518468E-05</v>
+        <v>7.276504873259249E-05</v>
       </c>
       <c r="T23">
-        <v>8.76568308518468E-05</v>
+        <v>4.871044106486891E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.17216047989684</v>
+        <v>1.1870385</v>
       </c>
       <c r="H24">
-        <v>1.17216047989684</v>
+        <v>2.374077</v>
       </c>
       <c r="I24">
-        <v>0.009907322035349725</v>
+        <v>0.008745100561913671</v>
       </c>
       <c r="J24">
-        <v>0.009907322035349725</v>
+        <v>0.005847111567493934</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N24">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O24">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P24">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q24">
-        <v>10.8337372678262</v>
+        <v>22.4217767392245</v>
       </c>
       <c r="R24">
-        <v>10.8337372678262</v>
+        <v>134.530660435347</v>
       </c>
       <c r="S24">
-        <v>0.00291800415485058</v>
+        <v>0.003788714584857228</v>
       </c>
       <c r="T24">
-        <v>0.00291800415485058</v>
+        <v>0.002536244553006598</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.17216047989684</v>
+        <v>1.1870385</v>
       </c>
       <c r="H25">
-        <v>1.17216047989684</v>
+        <v>2.374077</v>
       </c>
       <c r="I25">
-        <v>0.009907322035349725</v>
+        <v>0.008745100561913671</v>
       </c>
       <c r="J25">
-        <v>0.009907322035349725</v>
+        <v>0.005847111567493934</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N25">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O25">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P25">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q25">
-        <v>25.25882565053644</v>
+        <v>28.5061427848015</v>
       </c>
       <c r="R25">
-        <v>25.25882565053644</v>
+        <v>171.036856708809</v>
       </c>
       <c r="S25">
-        <v>0.006803317855399757</v>
+        <v>0.004816818942713972</v>
       </c>
       <c r="T25">
-        <v>0.006803317855399757</v>
+        <v>0.003224479050257535</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.17216047989684</v>
+        <v>1.1870385</v>
       </c>
       <c r="H26">
-        <v>1.17216047989684</v>
+        <v>2.374077</v>
       </c>
       <c r="I26">
-        <v>0.009907322035349725</v>
+        <v>0.008745100561913671</v>
       </c>
       <c r="J26">
-        <v>0.009907322035349725</v>
+        <v>0.005847111567493934</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N26">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O26">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P26">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q26">
-        <v>0.1843993573658539</v>
+        <v>0.18674192922375</v>
       </c>
       <c r="R26">
-        <v>0.1843993573658539</v>
+        <v>0.7469677168950001</v>
       </c>
       <c r="S26">
-        <v>4.966689496369009E-05</v>
+        <v>3.155467468448571E-05</v>
       </c>
       <c r="T26">
-        <v>4.966689496369009E-05</v>
+        <v>1.408223818359367E-05</v>
       </c>
     </row>
   </sheetData>
